--- a/我的账单.xlsx
+++ b/我的账单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="招商信用卡(掌上生活)" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="107">
   <si>
     <t xml:space="preserve"> 账单日</t>
   </si>
@@ -55,7 +55,7 @@
     <t>欠方总</t>
   </si>
   <si>
-    <t>6123+(11000-10663.41详见表格14G)+(20000-17238.10详见账单5)-1869.63(2019.12.05号我提前还的京东)=7351.86+500=7851.86</t>
+    <t>6123+(11000-10663.41详见表格14G)+(20000-17238.10详见账单5)-1869.63(2019.12.05号我提前还的京东)=7351.86-357.24=6994.62</t>
   </si>
   <si>
     <t>项目</t>
@@ -189,10 +189,16 @@
 (12.05晚我提前还了)</t>
   </si>
   <si>
+    <t>1841.87+204.44=2046.31</t>
+  </si>
+  <si>
     <t>还款方法(6个月等额)</t>
   </si>
   <si>
     <t>2019.12.06 --- 2020.06.06</t>
+  </si>
+  <si>
+    <t>1929.63+69.3=1998.93</t>
   </si>
   <si>
     <t>还款方法(6个月先息后本)</t>
@@ -208,6 +214,22 @@
 (13078.08-13600+20=501.92)</t>
   </si>
   <si>
+    <t>2020.02.16</t>
+  </si>
+  <si>
+    <t>2020.01.08---2021.01.06</t>
+  </si>
+  <si>
+    <t>2020.02.08</t>
+  </si>
+  <si>
+    <t>2020.02.08---2020.05.06</t>
+  </si>
+  <si>
+    <t>2020.02.06;
+2046.31+1998.93+248+464=4757.24</t>
+  </si>
+  <si>
     <t>金额</t>
   </si>
   <si>
@@ -235,6 +257,24 @@
     <t>刷花呗还信用卡</t>
   </si>
   <si>
+    <t>2020.02.07</t>
+  </si>
+  <si>
+    <t>还信用卡</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>资金</t>
+  </si>
+  <si>
+    <t>还款方式(等额)</t>
+  </si>
+  <si>
+    <t>2020.04.04--2021.01.04</t>
+  </si>
+  <si>
     <t>借款金额</t>
   </si>
   <si>
@@ -274,9 +314,6 @@
     <t>2019年7月,西安开店子</t>
   </si>
   <si>
-    <t>周云平</t>
-  </si>
-  <si>
     <t>王宝霞</t>
   </si>
   <si>
@@ -287,6 +324,12 @@
   </si>
   <si>
     <t>来荣新</t>
+  </si>
+  <si>
+    <t>李芳</t>
+  </si>
+  <si>
+    <t>2020.1.21给胡小芳</t>
   </si>
   <si>
     <t>还款人</t>
@@ -315,16 +358,31 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -338,68 +396,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,9 +417,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,21 +502,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -513,187 +556,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,6 +755,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,11 +798,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,21 +828,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -790,17 +839,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,10 +855,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -824,137 +867,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1005,6 +1048,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1401,7 +1450,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1443,10 +1492,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1457,8 +1506,8 @@
     <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.6833333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.3333333333333" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
@@ -1782,7 +1831,7 @@
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="3" t="s">
         <v>42</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -1820,8 +1869,8 @@
       <c r="G22" s="3">
         <v>1667.67</v>
       </c>
-      <c r="H22" s="1">
-        <v>1667.67</v>
+      <c r="H22" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="I22" s="1">
         <v>1667.67</v>
@@ -1877,7 +1926,7 @@
         <v>17</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="35" customHeight="1" spans="2:11">
@@ -1891,12 +1940,12 @@
         <v>40</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -1916,8 +1965,8 @@
       <c r="F26" s="3">
         <v>1883.4</v>
       </c>
-      <c r="G26" s="1">
-        <v>1883.4</v>
+      <c r="G26" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="H26" s="1">
         <v>1883.4</v>
@@ -1950,12 +1999,12 @@
         <v>17</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="35" customHeight="1" spans="2:11">
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1">
         <v>20000</v>
@@ -1964,12 +2013,12 @@
         <v>20</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -1987,9 +2036,9 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="92" customHeight="1" spans="6:11">
       <c r="F30" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" s="1">
+        <v>60</v>
+      </c>
+      <c r="G30" s="3">
         <v>248</v>
       </c>
       <c r="H30" s="1">
@@ -2005,8 +2054,97 @@
         <v>20248</v>
       </c>
     </row>
+    <row r="31" s="1" customFormat="1" ht="30" customHeight="1" spans="6:7">
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A32" s="1">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="30" customHeight="1" spans="2:7">
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1">
+        <v>40000</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="16">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="30" customHeight="1" spans="6:7">
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A35" s="1">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="30" customHeight="1" spans="2:7">
+      <c r="B36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="30" customHeight="1" spans="6:7">
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" ht="50" customHeight="1" spans="7:7">
+      <c r="G38" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="45">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F8:H8"/>
@@ -2022,6 +2160,8 @@
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A35:A36"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B13:B14"/>
@@ -2059,17 +2199,18 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
@@ -2077,7 +2218,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
@@ -2091,7 +2232,7 @@
         <v>10000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
@@ -2102,7 +2243,7 @@
         <v>4000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -2123,7 +2264,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1">
         <v>10000</v>
@@ -2139,7 +2280,7 @@
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1">
         <v>10000</v>
@@ -2153,7 +2294,7 @@
         <v>10000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
@@ -2161,7 +2302,7 @@
         <v>10000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
@@ -2169,7 +2310,7 @@
         <v>5000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -2188,7 +2329,7 @@
         <v>10000</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -2199,7 +2340,7 @@
         <v>10000</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -2218,7 +2359,7 @@
         <v>14000</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -2229,13 +2370,52 @@
         <v>4000</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="2:2">
-      <c r="B18" s="5">
-        <f>SUM(B2:B17)</f>
-        <v>202000</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:2">
+      <c r="B19" s="5">
+        <f>SUM(B2:B18)</f>
+        <v>206000</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2250,7 +2430,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="23" customHeight="1" outlineLevelRow="6"/>
@@ -2263,21 +2443,21 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1">
         <v>18000</v>
@@ -2286,7 +2466,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>23</v>
@@ -2332,23 +2512,23 @@
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B6" s="1">
         <v>5000</v>
@@ -2357,7 +2537,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>23</v>
@@ -2404,7 +2584,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="28" customHeight="1" outlineLevelCol="2"/>
@@ -2416,10 +2596,10 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
@@ -2427,18 +2607,18 @@
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B2" s="1">
         <v>2000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B3" s="1">
         <v>10000</v>
@@ -2446,13 +2626,13 @@
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B4" s="1">
         <v>10000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:3">
@@ -2468,34 +2648,31 @@
         <v>15000</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B7" s="1">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B8" s="1">
-        <v>10000</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>80</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B9" s="1">
         <v>10000</v>
@@ -2503,24 +2680,27 @@
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B10" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B11" s="1">
-        <v>3000</v>
+        <v>2000</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:2">
       <c r="B12" s="1">
         <f>SUM(B2:B11)</f>
-        <v>101000</v>
+        <v>75500</v>
       </c>
     </row>
   </sheetData>
@@ -2548,10 +2728,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
@@ -2559,7 +2739,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1">
         <v>20000</v>
@@ -2570,7 +2750,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C3" s="1">
         <v>10000</v>
@@ -2578,10 +2758,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1">
         <v>18000</v>
@@ -2589,10 +2769,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1">
         <v>5000</v>
@@ -2600,10 +2780,10 @@
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1">
         <v>20000</v>
@@ -2634,10 +2814,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -2645,7 +2825,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1">
         <v>2018.6</v>
@@ -2678,21 +2858,21 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1">
         <v>10000</v>
@@ -2714,7 +2894,7 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C4" s="1">
         <v>5000</v>
@@ -2728,7 +2908,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1">
         <v>11000</v>

--- a/我的账单.xlsx
+++ b/我的账单.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="107">
   <si>
     <t xml:space="preserve"> 账单日</t>
   </si>
@@ -55,7 +55,7 @@
     <t>欠方总</t>
   </si>
   <si>
-    <t>6123+(11000-10663.41详见表格14G)+(20000-17238.10详见账单5)-1869.63(2019.12.05号我提前还的京东)=7351.86-357.24=6994.62</t>
+    <t>6123+(11000-10663.41详见表格14G)+(20000-17238.10详见账单5)-1869.63(2019.12.05号我提前还的京东)=7351.86-357.24=6994.62+1500=8494.62</t>
   </si>
   <si>
     <t>项目</t>
@@ -214,9 +214,6 @@
 (13078.08-13600+20=501.92)</t>
   </si>
   <si>
-    <t>2020.02.16</t>
-  </si>
-  <si>
     <t>2020.01.08---2021.01.06</t>
   </si>
   <si>
@@ -228,6 +225,10 @@
   <si>
     <t>2020.02.06;
 2046.31+1998.93+248+464=4757.24</t>
+  </si>
+  <si>
+    <t>2020.03.06
+1819.21+1907.86+232+464+54=4477.07</t>
   </si>
   <si>
     <t>金额</t>
@@ -359,8 +360,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -380,6 +381,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -388,8 +419,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,8 +456,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,6 +473,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -440,47 +495,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,23 +517,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,187 +557,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,11 +757,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,45 +837,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -855,149 +862,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1046,14 +1053,17 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1494,8 +1504,8 @@
   <sheetPr/>
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1507,7 +1517,7 @@
     <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="34.6833333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.3333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.475" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
@@ -1834,7 +1844,7 @@
       <c r="H21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="16" t="s">
         <v>43</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -1872,8 +1882,8 @@
       <c r="H22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="1">
-        <v>1667.67</v>
+      <c r="I22" s="16">
+        <v>1819.21</v>
       </c>
       <c r="J22" s="1">
         <v>1667.67</v>
@@ -1948,7 +1958,7 @@
       <c r="G25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="16" t="s">
         <v>43</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -1968,8 +1978,8 @@
       <c r="G26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="1">
-        <v>1883.4</v>
+      <c r="H26" s="16">
+        <v>1907.86</v>
       </c>
       <c r="I26" s="1">
         <v>1883.4</v>
@@ -2021,7 +2031,7 @@
       <c r="G29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="16" t="s">
         <v>43</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -2035,13 +2045,13 @@
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="92" customHeight="1" spans="6:11">
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="17" t="s">
         <v>60</v>
       </c>
       <c r="G30" s="3">
         <v>248</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="16">
         <v>232</v>
       </c>
       <c r="I30" s="1">
@@ -2055,10 +2065,10 @@
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="30" customHeight="1" spans="6:7">
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="F31" s="18"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
       <c r="A32" s="1">
         <v>8</v>
       </c>
@@ -2074,11 +2084,14 @@
       <c r="E32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="30" customHeight="1" spans="2:7">
+      <c r="G32" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="30" customHeight="1" spans="2:8">
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
@@ -2089,17 +2102,20 @@
         <v>20</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="16">
+        <v>61</v>
+      </c>
+      <c r="G33" s="17">
         <v>464</v>
       </c>
+      <c r="H33" s="16">
+        <v>464</v>
+      </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="30" customHeight="1" spans="6:7">
-      <c r="F34" s="17"/>
-      <c r="G34" s="18"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="F34" s="18"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
       <c r="A35" s="1">
         <v>9</v>
       </c>
@@ -2115,12 +2131,15 @@
       <c r="E35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="30" customHeight="1" spans="2:7">
+      <c r="F35" s="18"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="30" customHeight="1" spans="2:8">
       <c r="B36" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" s="1">
         <v>5000</v>
@@ -2129,17 +2148,23 @@
         <v>20</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="18"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="16">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="30" customHeight="1" spans="6:7">
+      <c r="F37" s="18"/>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" ht="50" customHeight="1" spans="7:8">
+      <c r="G38" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="18"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="30" customHeight="1" spans="6:7">
-      <c r="F37" s="17"/>
-      <c r="G37" s="18"/>
-    </row>
-    <row r="38" ht="50" customHeight="1" spans="7:7">
-      <c r="G38" s="16" t="s">
+      <c r="H38" s="19" t="s">
         <v>65</v>
       </c>
     </row>

--- a/我的账单.xlsx
+++ b/我的账单.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="109">
   <si>
     <t xml:space="preserve"> 账单日</t>
   </si>
@@ -55,7 +55,7 @@
     <t>欠方总</t>
   </si>
   <si>
-    <t>6123+(11000-10663.41详见表格14G)+(20000-17238.10详见账单5)-1869.63(2019.12.05号我提前还的京东)=7351.86-357.24=6994.62+1500=8494.62</t>
+    <t>6123+(11000-10663.41详见表格14G)+(20000-17238.10详见账单5)-1869.63(2019.12.05号我提前还的京东)=7351.86-357.24=6994.62+1500=8494.62+1522.93=10017.55</t>
   </si>
   <si>
     <t>项目</t>
@@ -214,6 +214,9 @@
 (13078.08-13600+20=501.92)</t>
   </si>
   <si>
+    <t>期限（先息后本）</t>
+  </si>
+  <si>
     <t>2020.01.08---2021.01.06</t>
   </si>
   <si>
@@ -221,6 +224,9 @@
   </si>
   <si>
     <t>2020.02.08---2020.05.06</t>
+  </si>
+  <si>
+    <t>2020.03.06---2020.09.06</t>
   </si>
   <si>
     <t>2020.02.06;
@@ -375,60 +381,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,38 +403,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,11 +424,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -517,8 +500,31 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,7 +563,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,13 +689,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,163 +713,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,30 +754,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -820,6 +796,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -837,11 +839,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,8 +849,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,149 +862,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1053,16 +1053,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1502,10 +1496,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1844,7 +1838,7 @@
       <c r="H21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="I21" s="3" t="s">
         <v>43</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -1882,7 +1876,7 @@
       <c r="H22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="3">
         <v>1819.21</v>
       </c>
       <c r="J22" s="1">
@@ -1939,7 +1933,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="35" customHeight="1" spans="2:11">
+    <row r="25" s="1" customFormat="1" ht="35" customHeight="1" spans="2:12">
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1958,36 +1952,36 @@
       <c r="G25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="31" customHeight="1" spans="6:11">
+    <row r="26" s="1" customFormat="1" ht="31" customHeight="1" spans="6:12">
       <c r="F26" s="3">
         <v>1883.4</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="3">
         <v>1907.86</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1883.4</v>
       </c>
       <c r="J26" s="1">
         <v>1883.4</v>
       </c>
       <c r="K26" s="1">
+        <v>1883.4</v>
+      </c>
+      <c r="L26" s="1">
         <v>1883.4</v>
       </c>
     </row>
@@ -2012,7 +2006,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="35" customHeight="1" spans="2:11">
+    <row r="29" s="1" customFormat="1" ht="35" customHeight="1" spans="2:12">
       <c r="B29" s="1" t="s">
         <v>58</v>
       </c>
@@ -2031,44 +2025,44 @@
       <c r="G29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="92" customHeight="1" spans="6:11">
-      <c r="F30" s="17" t="s">
+    <row r="30" s="1" customFormat="1" ht="92" customHeight="1" spans="6:12">
+      <c r="F30" s="16" t="s">
         <v>60</v>
       </c>
       <c r="G30" s="3">
         <v>248</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="3">
         <v>232</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J30" s="1">
         <v>248</v>
       </c>
-      <c r="J30" s="1">
+      <c r="K30" s="1">
         <v>240</v>
       </c>
-      <c r="K30" s="1">
+      <c r="L30" s="1">
         <v>20248</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="30" customHeight="1" spans="6:7">
-      <c r="F31" s="18"/>
+      <c r="F31" s="17"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
+    <row r="32" s="1" customFormat="1" ht="30" customHeight="1" spans="1:10">
       <c r="A32" s="1">
         <v>8</v>
       </c>
@@ -2082,13 +2076,16 @@
         <v>16</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="3" t="s">
         <v>43</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="30" customHeight="1" spans="2:8">
@@ -2102,20 +2099,20 @@
         <v>20</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="17">
+        <v>62</v>
+      </c>
+      <c r="G33" s="16">
         <v>464</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H33" s="3">
         <v>464</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="30" customHeight="1" spans="6:7">
-      <c r="F34" s="18"/>
+      <c r="F34" s="17"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
+    <row r="35" s="1" customFormat="1" ht="30" customHeight="1" spans="1:10">
       <c r="A35" s="1">
         <v>9</v>
       </c>
@@ -2131,15 +2128,18 @@
       <c r="E35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="18"/>
+      <c r="F35" s="17"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="16" t="s">
+      <c r="H35" s="3" t="s">
         <v>43</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="30" customHeight="1" spans="2:8">
       <c r="B36" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C36" s="1">
         <v>5000</v>
@@ -2148,24 +2148,62 @@
         <v>20</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="18"/>
+        <v>64</v>
+      </c>
+      <c r="F36" s="17"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="16">
+      <c r="H36" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="30" customHeight="1" spans="6:7">
-      <c r="F37" s="18"/>
+    <row r="37" s="1" customFormat="1" ht="30" customHeight="1" spans="6:10">
+      <c r="F37" s="17"/>
       <c r="G37" s="9"/>
-    </row>
-    <row r="38" ht="50" customHeight="1" spans="7:8">
-      <c r="G38" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="H38" s="19" t="s">
+      <c r="J37" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="30" customHeight="1" spans="2:10">
+      <c r="B38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="9"/>
+      <c r="J38" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="30" customHeight="1" spans="2:7">
+      <c r="B39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="1">
+        <v>6000</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>65</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" ht="50" customHeight="1" spans="7:8">
+      <c r="G40" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2243,7 +2281,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
@@ -2257,7 +2295,7 @@
         <v>10000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
@@ -2268,7 +2306,7 @@
         <v>4000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -2289,7 +2327,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B6" s="1">
         <v>10000</v>
@@ -2305,7 +2343,7 @@
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1">
         <v>10000</v>
@@ -2319,7 +2357,7 @@
         <v>10000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
@@ -2327,7 +2365,7 @@
         <v>10000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
@@ -2335,7 +2373,7 @@
         <v>5000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -2354,7 +2392,7 @@
         <v>10000</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -2365,7 +2403,7 @@
         <v>10000</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -2384,7 +2422,7 @@
         <v>14000</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -2395,18 +2433,18 @@
         <v>4000</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B18" s="1">
         <v>4000</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:2">
@@ -2417,16 +2455,16 @@
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
@@ -2434,13 +2472,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C22" s="1">
         <v>10000</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2468,21 +2506,21 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B2" s="1">
         <v>18000</v>
@@ -2491,7 +2529,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>23</v>
@@ -2537,23 +2575,23 @@
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1">
         <v>5000</v>
@@ -2562,7 +2600,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>23</v>
@@ -2621,10 +2659,10 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
@@ -2632,18 +2670,18 @@
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1">
         <v>2000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1">
         <v>10000</v>
@@ -2651,13 +2689,13 @@
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1">
         <v>10000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:3">
@@ -2673,23 +2711,23 @@
         <v>15000</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B7" s="1">
         <v>10000</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B8" s="1">
         <v>8000</v>
@@ -2697,7 +2735,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B9" s="1">
         <v>10000</v>
@@ -2705,7 +2743,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B10" s="1">
         <v>2500</v>
@@ -2713,13 +2751,13 @@
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B11" s="1">
         <v>2000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:2">
@@ -2753,10 +2791,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
@@ -2764,7 +2802,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1">
         <v>20000</v>
@@ -2775,7 +2813,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1">
         <v>10000</v>
@@ -2783,10 +2821,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1">
         <v>18000</v>
@@ -2794,10 +2832,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1">
         <v>5000</v>
@@ -2808,7 +2846,7 @@
         <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1">
         <v>20000</v>
@@ -2839,10 +2877,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -2850,7 +2888,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1">
         <v>2018.6</v>
@@ -2883,21 +2921,21 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C2" s="1">
         <v>10000</v>
@@ -2919,7 +2957,7 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1">
         <v>5000</v>
@@ -2933,7 +2971,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C5" s="1">
         <v>11000</v>

--- a/我的账单.xlsx
+++ b/我的账单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="招商信用卡(掌上生活)" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,14 @@
     <sheet name="支付宝借款记录" sheetId="7" r:id="rId7"/>
     <sheet name="微粒贷记录" sheetId="8" r:id="rId8"/>
     <sheet name="京东金条" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
+    <sheet name="王星" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="110">
   <si>
     <t xml:space="preserve"> 账单日</t>
   </si>
@@ -55,7 +55,7 @@
     <t>欠方总</t>
   </si>
   <si>
-    <t>6123+(11000-10663.41详见表格14G)+(20000-17238.10详见账单5)-1869.63(2019.12.05号我提前还的京东)=7351.86-357.24=6994.62+1500=8494.62+1522.93=10017.55</t>
+    <t>6123+(11000-10663.41详见表格14G)+(20000-17238.10详见账单5)-1869.63(2019.12.05号我提前还的京东)=7351.86-357.24=6994.62+1500=8494.62+1522.93=10017.55+2408.8+3000=15426.35</t>
   </si>
   <si>
     <t>项目</t>
@@ -237,6 +237,10 @@
 1819.21+1907.86+232+464+54=4477.07</t>
   </si>
   <si>
+    <t>2020.04.06
+1816.11+1895.09+248+496+62+74=4591.2</t>
+  </si>
+  <si>
     <t>金额</t>
   </si>
   <si>
@@ -270,10 +274,7 @@
     <t>还信用卡</t>
   </si>
   <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>资金</t>
+    <t>来源</t>
   </si>
   <si>
     <t>还款方式(等额)</t>
@@ -285,9 +286,6 @@
     <t>借款金额</t>
   </si>
   <si>
-    <t>来源</t>
-  </si>
-  <si>
     <t>付款方式</t>
   </si>
   <si>
@@ -358,6 +356,12 @@
   </si>
   <si>
     <t>2019.12.01</t>
+  </si>
+  <si>
+    <t>支付宝</t>
+  </si>
+  <si>
+    <t>2020/03/22 --- 2020/06/06</t>
   </si>
 </sst>
 </file>
@@ -365,10 +369,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
@@ -380,8 +384,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,6 +429,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -402,8 +451,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,69 +467,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,9 +483,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,17 +514,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -563,187 +567,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,15 +758,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -798,6 +793,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -807,17 +811,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -837,20 +844,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,10 +866,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -874,143 +878,161 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1020,6 +1042,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1032,9 +1060,6 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1053,10 +1078,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1433,17 +1458,87 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="60" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="35.5" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="2:9">
+      <c r="B2" s="2">
+        <v>43912</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="3">
+        <v>43927</v>
+      </c>
+      <c r="G2" s="4">
+        <v>43957</v>
+      </c>
+      <c r="H2" s="4">
+        <v>43988</v>
+      </c>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="51" customHeight="1" spans="6:9">
+      <c r="F3" s="5">
+        <v>48</v>
+      </c>
+      <c r="G3" s="6">
+        <v>96</v>
+      </c>
+      <c r="H3" s="7">
+        <v>10099.2</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F1:Q1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1498,8 +1593,8 @@
   <sheetPr/>
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1513,7 +1608,7 @@
     <col min="7" max="7" width="34.6833333333333" style="1" customWidth="1"/>
     <col min="8" max="8" width="32.475" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="34.9083333333333" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.25" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.875" style="1" customWidth="1"/>
@@ -1577,24 +1672,24 @@
       <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" ht="31" customHeight="1" spans="6:8">
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="16">
         <v>3395.2</v>
       </c>
     </row>
@@ -1603,7 +1698,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="9"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
@@ -1640,24 +1735,24 @@
       <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1" spans="6:8">
-      <c r="F10" s="9">
+      <c r="F10" s="6">
         <v>324</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="14">
         <v>372</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="15">
         <v>30360</v>
       </c>
     </row>
@@ -1666,7 +1761,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="9"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
@@ -1703,24 +1798,24 @@
       <c r="E13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" ht="72" customHeight="1" spans="6:8">
-      <c r="F14" s="6">
+      <c r="F14" s="14">
         <v>6824</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="9">
         <v>6828.19</v>
       </c>
     </row>
@@ -1729,7 +1824,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="9"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
@@ -1766,24 +1861,24 @@
       <c r="E17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" ht="99" customHeight="1" spans="6:8">
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="20" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1792,7 +1887,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="9"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
@@ -1829,19 +1924,19 @@
       <c r="E21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="9" t="s">
         <v>44</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -1867,20 +1962,20 @@
       </c>
     </row>
     <row r="22" ht="51" customHeight="1" spans="6:17">
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="9">
         <v>1667.67</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="9">
         <v>1819.21</v>
       </c>
-      <c r="J22" s="1">
-        <v>1667.67</v>
+      <c r="J22" s="9">
+        <v>1816.11</v>
       </c>
       <c r="K22" s="1">
         <v>1667.67</v>
@@ -1909,7 +2004,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="9"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
@@ -1946,16 +2041,16 @@
       <c r="E25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="9" t="s">
         <v>44</v>
       </c>
       <c r="K25" s="1" t="s">
@@ -1966,17 +2061,17 @@
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="31" customHeight="1" spans="6:12">
-      <c r="F26" s="3">
+      <c r="F26" s="9">
         <v>1883.4</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="9">
         <v>1907.86</v>
       </c>
-      <c r="J26" s="1">
-        <v>1883.4</v>
+      <c r="J26" s="9">
+        <v>1895.09</v>
       </c>
       <c r="K26" s="1">
         <v>1883.4</v>
@@ -2019,16 +2114,16 @@
       <c r="E29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="9" t="s">
         <v>44</v>
       </c>
       <c r="K29" s="1" t="s">
@@ -2039,16 +2134,16 @@
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="92" customHeight="1" spans="6:12">
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="9">
         <v>248</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="9">
         <v>232</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="9">
         <v>248</v>
       </c>
       <c r="K30" s="1">
@@ -2059,8 +2154,8 @@
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="30" customHeight="1" spans="6:7">
-      <c r="F31" s="17"/>
-      <c r="G31" s="9"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="30" customHeight="1" spans="1:10">
       <c r="A32" s="1">
@@ -2078,17 +2173,17 @@
       <c r="E32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="30" customHeight="1" spans="2:8">
+    <row r="33" s="1" customFormat="1" ht="30" customHeight="1" spans="2:10">
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
@@ -2101,16 +2196,19 @@
       <c r="E33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="5">
         <v>464</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="9">
         <v>464</v>
       </c>
+      <c r="J33" s="9">
+        <v>496</v>
+      </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="30" customHeight="1" spans="6:7">
-      <c r="F34" s="17"/>
-      <c r="G34" s="9"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="30" customHeight="1" spans="1:10">
       <c r="A35" s="1">
@@ -2128,16 +2226,16 @@
       <c r="E35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="3" t="s">
+      <c r="F35" s="23"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="30" customHeight="1" spans="2:8">
+    <row r="36" s="1" customFormat="1" ht="30" customHeight="1" spans="2:10">
       <c r="B36" s="1" t="s">
         <v>63</v>
       </c>
@@ -2150,18 +2248,18 @@
       <c r="E36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="3">
+      <c r="F36" s="23"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="9">
         <v>54</v>
       </c>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="30" customHeight="1" spans="6:10">
-      <c r="F37" s="17"/>
-      <c r="G37" s="9"/>
-      <c r="J37" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="J36" s="9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="30" customHeight="1" spans="6:7">
+      <c r="F37" s="23"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="30" customHeight="1" spans="2:10">
       <c r="B38" s="1" t="s">
@@ -2176,13 +2274,13 @@
       <c r="E38" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="9"/>
-      <c r="J38" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="30" customHeight="1" spans="2:7">
+      <c r="F38" s="23"/>
+      <c r="G38" s="6"/>
+      <c r="J38" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="30" customHeight="1" spans="2:10">
       <c r="B39" s="1" t="s">
         <v>43</v>
       </c>
@@ -2195,15 +2293,21 @@
       <c r="E39" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="9"/>
-    </row>
-    <row r="40" ht="50" customHeight="1" spans="7:8">
-      <c r="G40" s="16" t="s">
+      <c r="F39" s="23"/>
+      <c r="G39" s="6"/>
+      <c r="J39" s="9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" ht="50" customHeight="1" spans="7:10">
+      <c r="G40" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="5" t="s">
         <v>67</v>
+      </c>
+      <c r="J40" s="24" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2262,18 +2366,21 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.875" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="10" width="9.375"/>
+    <col min="11" max="17" width="10.375"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
@@ -2281,7 +2388,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
@@ -2295,7 +2402,7 @@
         <v>10000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
@@ -2306,7 +2413,7 @@
         <v>4000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -2327,7 +2434,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1">
         <v>10000</v>
@@ -2343,7 +2450,7 @@
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1">
         <v>10000</v>
@@ -2357,7 +2464,7 @@
         <v>10000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
@@ -2365,7 +2472,7 @@
         <v>10000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
@@ -2373,7 +2480,7 @@
         <v>5000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -2392,7 +2499,7 @@
         <v>10000</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -2403,7 +2510,7 @@
         <v>10000</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -2422,7 +2529,7 @@
         <v>14000</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -2433,55 +2540,95 @@
         <v>4000</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B18" s="1">
         <v>4000</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:17">
+      <c r="A19" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="2:2">
-      <c r="B19" s="5">
-        <f>SUM(B2:B18)</f>
-        <v>206000</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D19" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="1">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E19" s="11">
+        <v>43925</v>
+      </c>
+      <c r="F19" s="11">
+        <v>43955</v>
+      </c>
+      <c r="G19" s="11">
+        <v>43986</v>
+      </c>
+      <c r="H19" s="11">
+        <v>44016</v>
+      </c>
+      <c r="I19" s="11">
+        <v>44047</v>
+      </c>
+      <c r="J19" s="11">
+        <v>44078</v>
+      </c>
+      <c r="K19" s="11">
+        <v>44108</v>
+      </c>
+      <c r="L19" s="11">
+        <v>44139</v>
+      </c>
+      <c r="M19" s="11">
+        <v>44169</v>
+      </c>
+      <c r="N19" s="11">
+        <v>44200</v>
+      </c>
+      <c r="O19" s="11">
+        <v>44231</v>
+      </c>
+      <c r="P19" s="11">
+        <v>44259</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>44290</v>
+      </c>
+    </row>
+    <row r="20" ht="39" customHeight="1" spans="3:5">
+      <c r="C20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>82</v>
       </c>
+      <c r="E20">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:2">
+      <c r="B21" s="13">
+        <f>SUM(B2:B20)</f>
+        <v>216000</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2492,8 +2639,8 @@
   <sheetPr/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="23" customHeight="1" outlineLevelRow="6"/>
@@ -2509,18 +2656,18 @@
         <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1">
         <v>18000</v>
@@ -2529,12 +2676,12 @@
         <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -2551,10 +2698,10 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="5:10">
-      <c r="E3" s="3">
+      <c r="E3" s="9">
         <v>180</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="9">
         <v>223.2</v>
       </c>
       <c r="G3" s="1">
@@ -2578,20 +2725,20 @@
         <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="1">
         <v>5000</v>
@@ -2600,12 +2747,12 @@
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -2613,10 +2760,10 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="5:7">
-      <c r="E7" s="3">
+      <c r="E7" s="9">
         <v>50</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="9">
         <v>62</v>
       </c>
       <c r="G7" s="1">
@@ -2647,7 +2794,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="28" customHeight="1" outlineLevelCol="2"/>
@@ -2659,10 +2806,10 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
@@ -2670,18 +2817,18 @@
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1">
         <v>2000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1">
         <v>10000</v>
@@ -2689,20 +2836,20 @@
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="1">
         <v>10000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:3">
       <c r="B5" s="1">
         <v>6000</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="8">
         <v>43586</v>
       </c>
     </row>
@@ -2711,23 +2858,23 @@
         <v>15000</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="1">
         <v>10000</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" s="1">
         <v>8000</v>
@@ -2735,7 +2882,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" s="1">
         <v>10000</v>
@@ -2743,7 +2890,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="1">
         <v>2500</v>
@@ -2751,13 +2898,13 @@
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="1">
         <v>2000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:2">
@@ -2791,10 +2938,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
@@ -2802,7 +2949,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1">
         <v>20000</v>
@@ -2813,7 +2960,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1">
         <v>10000</v>
@@ -2821,10 +2968,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1">
         <v>18000</v>
@@ -2832,10 +2979,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="1">
         <v>5000</v>
@@ -2846,7 +2993,7 @@
         <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1">
         <v>20000</v>
@@ -2877,10 +3024,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -2888,7 +3035,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1">
         <v>2018.6</v>
@@ -2921,21 +3068,21 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1">
         <v>10000</v>
@@ -2957,7 +3104,7 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1">
         <v>5000</v>
@@ -2971,7 +3118,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1">
         <v>11000</v>
